--- a/Documentation/Plan of Approach/Functional and non-functional requirements.xlsx
+++ b/Documentation/Plan of Approach/Functional and non-functional requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOURI\Documents\GitHub\Hardware_Simulator\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/459322_student_fontys_nl/Documents/Github/Hardware_Simulator/Documentation/Plan of Approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687B260-3BD4-4846-AE43-26D8F4CC678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DDB8165-9225-4BE4-BF8F-8DAAE4A507E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5DDB8165-9225-4BE4-BF8F-8DAAE4A507E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -290,46 +290,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,7 +342,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -649,11 +646,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,13 +671,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="1">
@@ -692,23 +689,23 @@
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="9"/>
       <c r="D3" s="1">
         <v>1.2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>1.3</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -725,46 +722,46 @@
       <c r="D5" s="1">
         <v>2.1</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>3.1</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="1">
         <v>3.2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1">
         <v>3.3</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -781,168 +778,168 @@
       <c r="D9" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="9"/>
       <c r="D11" s="1">
         <v>5.2</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="9"/>
       <c r="D12" s="1">
         <v>5.3</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="9"/>
       <c r="D13" s="1">
         <v>5.4</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1">
         <v>5.5</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="9"/>
       <c r="D15" s="1">
         <v>5.6</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1">
         <v>5.7</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>6.1</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="9"/>
       <c r="D18" s="1">
         <v>6.2</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="1">
         <v>6.3</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="8">
         <v>7</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>7.1</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="9"/>
       <c r="D21" s="1">
         <v>7.2</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="1">
         <v>7.3</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -964,10 +961,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="8">
         <v>9</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="14">
@@ -982,7 +979,7 @@
     </row>
     <row r="25" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="1">
         <v>9.1999999999999993</v>
@@ -992,8 +989,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="1">
         <v>9.3000000000000007</v>
@@ -1043,27 +1040,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
